--- a/WakilRecouvrement/WakilRecouvrement.Web/Uploads/LOT_5_POSTE2.xlsx
+++ b/WakilRecouvrement/WakilRecouvrement.Web/Uploads/LOT_5_POSTE2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marwen\Desktop\Les lots\Lot Marwa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3730B7F-D02C-4BCD-937A-7C13D8259BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBC16D3-CB9E-410B-AA44-D9A5F193F770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4544,7 +4544,7 @@
   <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
